--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\OneDrive\Documents\Eclipse_Workspace\7rmartSuperMarket\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351FB08D-3B64-4800-9914-1D5DBD3B9DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146C49D-8414-4220-B132-E02775228771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyUserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="MobileSlider" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>admin</t>
   </si>
@@ -35,6 +36,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Chinchu Balachandran</t>
+  </si>
+  <si>
+    <t>Fruits</t>
   </si>
 </sst>
 </file>
@@ -388,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74258D3E-8D2B-4FDB-8E9B-2AC94839D81E}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -421,15 +428,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30011669-5E7B-42AB-ABF1-0756F8E3A6C2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE4C995-EB63-4D62-BBB0-D9C4ECE8C05C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\OneDrive\Documents\Eclipse_Workspace\7rmartSuperMarket\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146C49D-8414-4220-B132-E02775228771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969795E8-D9F8-4620-9B16-66A0D8435A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyUserPage" sheetId="2" r:id="rId2"/>
     <sheet name="MobileSlider" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageSlider" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageCategory" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>admin</t>
   </si>
@@ -42,6 +44,12 @@
   </si>
   <si>
     <t>Fruits</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/Slider/add</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -449,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE4C995-EB63-4D62-BBB0-D9C4ECE8C05C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -463,4 +471,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FF229A-37BF-4891-B357-855CEDE5F514}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7621A-3EB4-4167-906F-F9623DBFF0F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\OneDrive\Documents\Eclipse_Workspace\7rmartSuperMarket\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969795E8-D9F8-4620-9B16-66A0D8435A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FBEEA1-86BF-4DE8-B5AF-D891B3470BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
+    <workbookView xWindow="13968" yWindow="2988" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="MobileSlider" sheetId="3" r:id="rId3"/>
     <sheet name="ManageSlider" sheetId="4" r:id="rId4"/>
     <sheet name="ManageCategory" sheetId="5" r:id="rId5"/>
+    <sheet name="ManageLocation" sheetId="6" r:id="rId6"/>
+    <sheet name="ManageExpense" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>admin</t>
   </si>
@@ -50,19 +52,79 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Delivery Charge</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Madhu(PR)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>IceCreams</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Purchase ID</t>
+  </si>
+  <si>
+    <t>Expense Type</t>
+  </si>
+  <si>
+    <t>Credit Bank</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Tested and verified by Shyama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,9 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE4C995-EB63-4D62-BBB0-D9C4ECE8C05C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -498,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE7621A-3EB4-4167-906F-F9623DBFF0F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -513,4 +574,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12509D7-5802-4B94-9CCE-767EB3CD840D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A0AC2C-A36D-41AA-8265-BF7DB7C6DAEE}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\OneDrive\Documents\Eclipse_Workspace\7rmartSuperMarket\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FBEEA1-86BF-4DE8-B5AF-D891B3470BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03172135-3A30-470C-A515-C987E4A720EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13968" yWindow="2988" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="ManageCategory" sheetId="5" r:id="rId5"/>
     <sheet name="ManageLocation" sheetId="6" r:id="rId6"/>
     <sheet name="ManageExpense" sheetId="7" r:id="rId7"/>
+    <sheet name="ManageDeliveryBoy" sheetId="8" r:id="rId8"/>
+    <sheet name="PushNotification" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>admin</t>
   </si>
@@ -106,13 +108,52 @@
   </si>
   <si>
     <t>Tested and verified by Shyama</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Tester@gmail.com</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Ushass</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Project data</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SevenRMart Project</t>
+  </si>
+  <si>
+    <t>Ambili</t>
+  </si>
+  <si>
+    <t>ambili</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +166,14 @@
       <color rgb="FF212529"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,14 +193,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -635,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A0AC2C-A36D-41AA-8265-BF7DB7C6DAEE}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -704,4 +756,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EEA211-8823-436F-BF3A-226128F57D9C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{79DBC053-0D27-45F2-8CB6-BC1EF0B8E607}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1693AFD-AADD-42B1-BCD4-D287F8FCB0D0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>